--- a/Llama3.2-1B-it-eval.xlsx
+++ b/Llama3.2-1B-it-eval.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabioMatricardi\Documents\DEV\Models_Autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199E8939-4C02-43F4-93FB-C3C9C887FF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8B4356-300B-47E7-957F-50111E94F62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="690" windowWidth="26445" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="690" windowWidth="26445" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>introduction</t>
   </si>
@@ -129,13 +129,19 @@
   </si>
   <si>
     <t>gibberish with many repetitions, and bad attempt to follow up a reasoning process.</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SOURCE: https://github.com/fabiomatricardi/llama3.2-1b-it_test/raw/main/LLAMA3.2-1Bit_CPP_ARTICLE_log.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +178,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -189,64 +211,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <strike val="0"/>
@@ -305,8 +392,140 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E0B4"/>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E0B4"/>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thick">
+          <color rgb="FFFFFFFF"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thick">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFDA"/>
+          <bgColor rgb="FFE2EFDA"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="TableStyleMedium14 2" pivot="0" count="7" xr9:uid="{D45DE317-C4A7-4F1E-B9D6-64DF64FCF84A}">
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="firstColumn" dxfId="9"/>
+      <tableStyleElement type="lastColumn" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -328,17 +547,17 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>236633</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4513358</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9232CE3A-E039-A97B-4FC4-2DD3763C3B69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0408E02F-14C4-4522-9F1D-FB5D018DD2C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -360,7 +579,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5487148" y="5676900"/>
+          <a:off x="5229973" y="6619875"/>
           <a:ext cx="5522260" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -373,22 +592,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>15093</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>144693</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>222681</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E5EDEB-1EB2-1062-0CF8-2870A7D2E7DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF5CB4D-A996-427E-AA1F-6ED9931FAFFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -404,8 +623,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10829926" y="967593"/>
-          <a:ext cx="3135542" cy="5242707"/>
+          <a:off x="11077575" y="962025"/>
+          <a:ext cx="3251631" cy="5534025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -418,12 +637,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6122B4BE-A21B-4D2A-A65D-B1055C66B26E}" name="Table1" displayName="Table1" ref="D6:G20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09932D12-6514-4AE5-95F1-D37833D3DF2F}" name="Table14" displayName="Table14" ref="D6:G21" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A0ABB008-24F0-4AF7-9054-00E163990D20}" name="#" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C13D975E-BB5B-49F4-9C01-68A3525C6D95}" name="TASK" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7EBB617D-0599-4703-9F11-A384CD715C2D}" name="VOTE" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{379E0D89-3FB2-424A-9FF2-72A942A030EF}" name="REMARKS" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8EBE9730-B379-43E0-84F2-25553EE3B187}" name="#" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{42C43DFF-7529-4BD1-8914-84FD0BB3CC8D}" name="TASK" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{88E76F72-73E7-4C61-9532-5688A48D2972}" name="VOTE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{34A39B74-A4EA-4DEB-8328-7618D5E8FC63}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -691,8 +910,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D6:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2925E8-07BB-449D-AFDA-BE1DB43FD1EB}">
+  <dimension ref="C4:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
@@ -700,11 +919,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
     <col min="5" max="5" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.140625" customWidth="1"/>
+    <col min="7" max="7" width="72.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="10"/>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
@@ -717,8 +954,10 @@
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="4:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="10"/>
       <c r="D7" s="2">
         <v>1</v>
       </c>
@@ -729,8 +968,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="4:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
       <c r="D8" s="2">
         <v>2</v>
       </c>
@@ -743,8 +984,10 @@
       <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="4:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="10"/>
       <c r="D9" s="2">
         <v>3</v>
       </c>
@@ -757,8 +1000,10 @@
       <c r="G9" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="4:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="3:13" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
       <c r="D10" s="2">
         <v>4</v>
       </c>
@@ -771,8 +1016,10 @@
       <c r="G10" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="4:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
       <c r="D11" s="2">
         <v>5</v>
       </c>
@@ -785,8 +1032,10 @@
       <c r="G11" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="4:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
       <c r="D12" s="2">
         <v>6</v>
       </c>
@@ -799,8 +1048,10 @@
       <c r="G12" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="4:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="3:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="10"/>
       <c r="D13" s="2">
         <v>7</v>
       </c>
@@ -813,8 +1064,10 @@
       <c r="G13" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="4:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
       <c r="D14" s="2">
         <v>8</v>
       </c>
@@ -827,8 +1080,10 @@
       <c r="G14" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="4:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="3:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="10"/>
       <c r="D15" s="2">
         <v>9</v>
       </c>
@@ -841,8 +1096,10 @@
       <c r="G15" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="4:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="10"/>
       <c r="D16" s="2">
         <v>10</v>
       </c>
@@ -855,8 +1112,10 @@
       <c r="G16" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="10"/>
       <c r="D17" s="2">
         <v>11</v>
       </c>
@@ -869,8 +1128,10 @@
       <c r="G17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="4:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="3:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C18" s="10"/>
       <c r="D18" s="2">
         <v>12</v>
       </c>
@@ -883,8 +1144,10 @@
       <c r="G18" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="4:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="3:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="10"/>
       <c r="D19" s="2">
         <v>13</v>
       </c>
@@ -897,8 +1160,10 @@
       <c r="G19" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="4:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="3:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="10"/>
       <c r="D20" s="2">
         <v>14</v>
       </c>
@@ -911,8 +1176,48 @@
       <c r="G20" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="3:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C21" s="10"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="12">
+        <f>SUBTOTAL(109,F7:F20)</f>
+        <v>41</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="10"/>
+      <c r="D22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:G22"/>
+  </mergeCells>
   <conditionalFormatting sqref="F7:F20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
